--- a/Stocks/CONCOR.xlsx
+++ b/Stocks/CONCOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1202.7666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1170.4063994621283</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1160.3836101377833</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>54.995015404023718</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>18.400000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>5.4347826086956257E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1168.3788618948395</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-2.2836024234252363</v>
       </c>
       <c r="Y67">
         <v>-0.86429061964254816</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1265.6500000000001</v>
+      </c>
+      <c r="D83">
+        <v>1291</v>
+      </c>
+      <c r="E83">
+        <v>1259.45</v>
+      </c>
+      <c r="F83">
+        <v>1286.3499999999999</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1278.9333333333332</v>
+      </c>
+      <c r="H83">
+        <v>1270.7758866332924</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1270.6452205940348</v>
+      </c>
+      <c r="K83">
+        <v>1227.8474313500762</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>74.528391517714482</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>26.899999999999864</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>31.549999999999955</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.85261489698890336</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1236.3872655589175</v>
+      </c>
+      <c r="W83">
+        <v>1209.401320730072</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>26.985944828845504</v>
+      </c>
+      <c r="Y83">
+        <v>16.711700231652454</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="35"/>
+        <v>1263.0500000000002</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="36"/>
+        <v>1271.5</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="37"/>
+        <v>1275.2</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="38"/>
+        <v>1278.95</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1282</v>
+      </c>
+      <c r="D84">
+        <v>1282</v>
+      </c>
+      <c r="E84">
+        <v>1251.5</v>
+      </c>
+      <c r="F84">
+        <v>1255.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1263</v>
+      </c>
+      <c r="H84">
+        <v>1266.8879433166462</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1273.1685049064715</v>
+      </c>
+      <c r="K84">
+        <v>1233.1035577167261</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>53.884084317302182</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1239.327686242161</v>
+      </c>
+      <c r="W84">
+        <v>1212.8160377130296</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>26.511648529131435</v>
+      </c>
+      <c r="Y84">
+        <v>18.671689891148251</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1260.5</v>
+      </c>
+      <c r="D85">
+        <v>1316</v>
+      </c>
+      <c r="E85">
+        <v>1260.5</v>
+      </c>
+      <c r="F85">
+        <v>1312.95</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1296.4833333333333</v>
+      </c>
+      <c r="H85">
+        <v>1281.6856383249897</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1282.6866149272557</v>
+      </c>
+      <c r="K85">
+        <v>1239.1916560018981</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>71.962559750868422</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>52.450000000000045</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>55.5</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.94504504504504583</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>1250.6541960510592</v>
+      </c>
+      <c r="W85">
+        <v>1220.2333682528051</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>30.420827798254095</v>
+      </c>
+      <c r="Y85">
+        <v>21.021517472569421</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1319.95</v>
+      </c>
+      <c r="D86">
+        <v>1344</v>
+      </c>
+      <c r="E86">
+        <v>1313</v>
+      </c>
+      <c r="F86">
+        <v>1322</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1326.3333333333333</v>
+      </c>
+      <c r="H86">
+        <v>1304.0094858291613</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1296.3118116100877</v>
+      </c>
+      <c r="K86">
+        <v>1255.5935102236986</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>73.971764747583464</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1261.6304735816655</v>
+      </c>
+      <c r="W86">
+        <v>1227.7716372711159</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>33.858836310549577</v>
+      </c>
+      <c r="Y86">
+        <v>23.588981240165452</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1322.4</v>
+      </c>
+      <c r="D87">
+        <v>1337.7</v>
+      </c>
+      <c r="E87">
+        <v>1322.4</v>
+      </c>
+      <c r="F87">
+        <v>1335.25</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1331.7833333333335</v>
+      </c>
+      <c r="H87">
+        <v>1317.8964095812476</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1305.5091868078459</v>
+      </c>
+      <c r="K87">
+        <v>1270.4393968406544</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.989549881158993</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>12.849999999999909</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>15.299999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.83986928104574821</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1272.9565545691016</v>
+      </c>
+      <c r="W87">
+        <v>1235.7329974732554</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>37.223557095846218</v>
+      </c>
+      <c r="Y87">
+        <v>26.315896411301605</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>1324.15</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>1328.25</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>1330.0500000000002</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>1331.8500000000001</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1326</v>
+      </c>
+      <c r="D88">
+        <v>1330.95</v>
+      </c>
+      <c r="E88">
+        <v>1294.3</v>
+      </c>
+      <c r="F88">
+        <v>1315</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1313.4166666666667</v>
+      </c>
+      <c r="H88">
+        <v>1315.656538123957</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1311.1627008505468</v>
+      </c>
+      <c r="K88">
+        <v>1275.7417530982866</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>63.02898300657791</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>20.700000000000045</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>36.650000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.5648021828103682</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1279.424776943086</v>
+      </c>
+      <c r="W88">
+        <v>1241.6046272900512</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>37.820149653034832</v>
+      </c>
+      <c r="Y88">
+        <v>28.616747059648251</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1315</v>
+      </c>
+      <c r="D89">
+        <v>1356.8</v>
+      </c>
+      <c r="E89">
+        <v>1315</v>
+      </c>
+      <c r="F89">
+        <v>1350</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1340.6000000000001</v>
+      </c>
+      <c r="H89">
+        <v>1328.1282690619787</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1321.3043228837587</v>
+      </c>
+      <c r="K89">
+        <v>1284.4658079653341</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>73.435853830919243</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>41.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.83732057416268035</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>1290.2825035672267</v>
+      </c>
+      <c r="W89">
+        <v>1249.6339141574549</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>40.64858940977183</v>
+      </c>
+      <c r="Y89">
+        <v>31.023115529672967</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>1319.75</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>1330.95</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>1335.9</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>1340.8500000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1335</v>
+      </c>
+      <c r="D90">
+        <v>1395.45</v>
+      </c>
+      <c r="E90">
+        <v>1320</v>
+      </c>
+      <c r="F90">
+        <v>1388</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1367.8166666666666</v>
+      </c>
+      <c r="H90">
+        <v>1347.9724678643227</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1337.7811400207013</v>
+      </c>
+      <c r="K90">
+        <v>1292.3622950841486</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>80.778732531211688</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>75.450000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.90125911199469788</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>1305.3159645568842</v>
+      </c>
+      <c r="W90">
+        <v>1259.8832538494953</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>45.432710707388878</v>
+      </c>
+      <c r="Y90">
+        <v>33.905034565216148</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>1328.6000000000001</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>1348.8000000000002</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>1357.7</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>1366.65</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1399.35</v>
+      </c>
+      <c r="D91">
+        <v>1400</v>
+      </c>
+      <c r="E91">
+        <v>1368.05</v>
+      </c>
+      <c r="F91">
+        <v>1376</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1381.3500000000001</v>
+      </c>
+      <c r="H91">
+        <v>1364.6612339321614</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1351.6075533494343</v>
+      </c>
+      <c r="K91">
+        <v>1309.1817850654488</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.83180539990353</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>7.9500000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>31.950000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.24882629107981327</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1316.1904315481327</v>
+      </c>
+      <c r="W91">
+        <v>1268.4844943050882</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>47.705937243044445</v>
+      </c>
+      <c r="Y91">
+        <v>36.665215100781808</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1386</v>
+      </c>
+      <c r="D92">
+        <v>1387</v>
+      </c>
+      <c r="E92">
+        <v>1349.15</v>
+      </c>
+      <c r="F92">
+        <v>1356.1</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1364.0833333333333</v>
+      </c>
+      <c r="H92">
+        <v>1364.3722836327474</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1359.4725414940044</v>
+      </c>
+      <c r="K92">
+        <v>1318.0636106064603</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>60.494980971823431</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>6.9499999999998181</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>37.849999999999909</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.1836195508586482</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1322.3303651561123</v>
+      </c>
+      <c r="W92">
+        <v>1274.9745317639706</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>47.355833392141676</v>
+      </c>
+      <c r="Y92">
+        <v>38.80333875905378</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1368.8</v>
+      </c>
+      <c r="D93">
+        <v>1413</v>
+      </c>
+      <c r="E93">
+        <v>1368.6</v>
+      </c>
+      <c r="F93">
+        <v>1406</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1395.8666666666668</v>
+      </c>
+      <c r="H93">
+        <v>1380.1194751497071</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1371.3675322731146</v>
+      </c>
+      <c r="K93">
+        <v>1329.2939193605803</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>74.195463297733369</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>37.400000000000091</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>44.400000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.84234234234234262</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>1335.2026166705566</v>
+      </c>
+      <c r="W93">
+        <v>1284.6801220036764</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>50.52249466688022</v>
+      </c>
+      <c r="Y93">
+        <v>41.147169940619065</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1373.65</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1385.5500000000002</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1390.8000000000002</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1396.0500000000002</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1409</v>
+      </c>
+      <c r="D94">
+        <v>1409</v>
+      </c>
+      <c r="E94">
+        <v>1384.5</v>
+      </c>
+      <c r="F94">
+        <v>1403.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1398.8833333333332</v>
+      </c>
+      <c r="H94">
+        <v>1389.50140424152</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1379.7303028790891</v>
+      </c>
+      <c r="K94">
+        <v>1341.5619372804513</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>72.402821978232907</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>18.650000000000091</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>24.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.76122448979592205</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1345.6560602597017</v>
+      </c>
+      <c r="W94">
+        <v>1293.4556685219227</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>52.200391737779</v>
+      </c>
+      <c r="Y94">
+        <v>43.357814300051054</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1405</v>
+      </c>
+      <c r="D95">
+        <v>1408</v>
+      </c>
+      <c r="E95">
+        <v>1365</v>
+      </c>
+      <c r="F95">
+        <v>1384</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1385.6666666666667</v>
+      </c>
+      <c r="H95">
+        <v>1387.5840354540933</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1386.012457794847</v>
+      </c>
+      <c r="K95">
+        <v>1346.7703956625733</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>60.188637035544211</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.44186046511627908</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1351.5551279120552</v>
+      </c>
+      <c r="W95">
+        <v>1300.1626560388172</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>51.392471873238037</v>
+      </c>
+      <c r="Y95">
+        <v>44.964745814688449</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1383</v>
+      </c>
+      <c r="D96">
+        <v>1394.7</v>
+      </c>
+      <c r="E96">
+        <v>1341.3</v>
+      </c>
+      <c r="F96">
+        <v>1376.95</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1370.9833333333333</v>
+      </c>
+      <c r="H96">
+        <v>1379.2836843937134</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1387.9430227293255</v>
+      </c>
+      <c r="K96">
+        <v>1345.5547521820015</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>55.852694856886274</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>35.650000000000091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>53.400000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.66760299625468222</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1355.4620313102007</v>
+      </c>
+      <c r="W96">
+        <v>1305.8506074433492</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>49.61142386685151</v>
+      </c>
+      <c r="Y96">
+        <v>45.894081425121058</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1381.25</v>
+      </c>
+      <c r="D97">
+        <v>1384.75</v>
+      </c>
+      <c r="E97">
+        <v>1346.05</v>
+      </c>
+      <c r="F97">
+        <v>1354.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1361.6166666666668</v>
+      </c>
+      <c r="H97">
+        <v>1370.4501755301901</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1387.2334621228088</v>
+      </c>
+      <c r="K97">
+        <v>1345.6648072526677</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>43.212928400557942</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>38.700000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.20671834625322974</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1355.2447957240161</v>
+      </c>
+      <c r="W97">
+        <v>1309.4209328179159</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>45.823862906100203</v>
+      </c>
+      <c r="Y97">
+        <v>45.880037721316889</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1363</v>
+      </c>
+      <c r="D98">
+        <v>1379</v>
+      </c>
+      <c r="E98">
+        <v>1357</v>
+      </c>
+      <c r="F98">
+        <v>1360.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1365.3666666666668</v>
+      </c>
+      <c r="H98">
+        <v>1367.9084210984283</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1385.4038038732956</v>
+      </c>
+      <c r="K98">
+        <v>1348.1837389742971</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>47.16179851428943</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.0999999999999091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.14090909090908676</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1355.9917502280136</v>
+      </c>
+      <c r="W98">
+        <v>1313.1749377943665</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>42.816812433647101</v>
+      </c>
+      <c r="Y98">
+        <v>45.267392663782928</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1372.9</v>
+      </c>
+      <c r="D99">
+        <v>1378.8</v>
+      </c>
+      <c r="E99">
+        <v>1351</v>
+      </c>
+      <c r="F99">
+        <v>1355</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1361.6000000000001</v>
+      </c>
+      <c r="H99">
+        <v>1364.7542105492143</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1383.936291901452</v>
+      </c>
+      <c r="K99">
+        <v>1348.8095747577865</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>43.942004737433855</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>27.799999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.14388489208633118</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1355.8391732698576</v>
+      </c>
+      <c r="W99">
+        <v>1316.2730905503395</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>39.566082719518135</v>
+      </c>
+      <c r="Y99">
+        <v>44.127130674929973</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1357.4</v>
+      </c>
+      <c r="D100">
+        <v>1373.85</v>
+      </c>
+      <c r="E100">
+        <v>1357.2</v>
+      </c>
+      <c r="F100">
+        <v>1367</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1366.0166666666667</v>
+      </c>
+      <c r="H100">
+        <v>1365.3854386079406</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1381.6948937011293</v>
+      </c>
+      <c r="K100">
+        <v>1350.6741137005006</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>53.316037958874254</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>16.649999999999864</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.58858858858859064</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1357.5562235360333</v>
+      </c>
+      <c r="W100">
+        <v>1320.0306393984624</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>37.525584137570831</v>
+      </c>
+      <c r="Y100">
+        <v>42.806821367458141</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1365</v>
+      </c>
+      <c r="D101">
+        <v>1369.4</v>
+      </c>
+      <c r="E101">
+        <v>1333.5</v>
+      </c>
+      <c r="F101">
+        <v>1341</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1347.9666666666667</v>
+      </c>
+      <c r="H101">
+        <v>1356.6760526373037</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1378.9626951008784</v>
+      </c>
+      <c r="K101">
+        <v>1346.8576439892781</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>36.696585878352195</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>35.900000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.20891364902506912</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1355.0091122227973</v>
+      </c>
+      <c r="W101">
+        <v>1321.5839253689467</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>33.425186853850619</v>
+      </c>
+      <c r="Y101">
+        <v>40.93049446473664</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1340</v>
+      </c>
+      <c r="D102">
+        <v>1340</v>
+      </c>
+      <c r="E102">
+        <v>1300</v>
+      </c>
+      <c r="F102">
+        <v>1310</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1316.6666666666667</v>
+      </c>
+      <c r="H102">
+        <v>1336.6713596519853</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1370.3043184117944</v>
+      </c>
+      <c r="K102">
+        <v>1336.444834213883</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.056108100745579</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1348.08463341929</v>
+      </c>
+      <c r="W102">
+        <v>1320.7258568230989</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>27.358776596191092</v>
+      </c>
+      <c r="Y102">
+        <v>38.216150891027532</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1307</v>
+      </c>
+      <c r="D103">
+        <v>1307</v>
+      </c>
+      <c r="E103">
+        <v>1257.6500000000001</v>
+      </c>
+      <c r="F103">
+        <v>1280</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1281.55</v>
+      </c>
+      <c r="H103">
+        <v>1309.1106798259925</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1356.2366920980623</v>
+      </c>
+      <c r="K103">
+        <v>1318.9348710552424</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.107784500135224</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>22.349999999999909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>49.349999999999909</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.45288753799391995</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1337.6100744317068</v>
+      </c>
+      <c r="W103">
+        <v>1317.7091266880545</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>19.900947743652296</v>
+      </c>
+      <c r="Y103">
+        <v>34.553110261552483</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1282.25</v>
+      </c>
+      <c r="D104">
+        <v>1301</v>
+      </c>
+      <c r="E104">
+        <v>1265.05</v>
+      </c>
+      <c r="F104">
+        <v>1286</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1284.0166666666667</v>
+      </c>
+      <c r="H104">
+        <v>1296.5636732463295</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1343.9618716318262</v>
+      </c>
+      <c r="K104">
+        <v>1306.9604552651886</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>23.417096632081378</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>20.950000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>35.950000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.58275382475660698</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1329.6700629806751</v>
+      </c>
+      <c r="W104">
+        <v>1315.3603024889394</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>14.309760491735688</v>
+      </c>
+      <c r="Y104">
+        <v>30.504440307589125</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1290.25</v>
+      </c>
+      <c r="D105">
+        <v>1297.7</v>
+      </c>
+      <c r="E105">
+        <v>1255</v>
+      </c>
+      <c r="F105">
+        <v>1260</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1270.8999999999999</v>
+      </c>
+      <c r="H105">
+        <v>1283.7318366231648</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1333.6814557136427</v>
+      </c>
+      <c r="K105">
+        <v>1295.41368742848</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>17.330870077264926</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>42.700000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.11709601873536288</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1318.9515917528788</v>
+      </c>
+      <c r="W105">
+        <v>1311.2595393416107</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>7.6920524112681505</v>
+      </c>
+      <c r="Y105">
+        <v>25.941962728324931</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1292.8500000000001</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1281.4000000000001</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1276.3500000000001</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1271.3000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1266.4000000000001</v>
+      </c>
+      <c r="D106">
+        <v>1357.45</v>
+      </c>
+      <c r="E106">
+        <v>1250.8499999999999</v>
+      </c>
+      <c r="F106">
+        <v>1304.75</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1304.3500000000001</v>
+      </c>
+      <c r="H106">
+        <v>1294.0409183115826</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1338.9633544439444</v>
+      </c>
+      <c r="K106">
+        <v>1285.5106457777067</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>46.978797740064657</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>53.900000000000091</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>106.60000000000014</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.50562851782363993</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1316.7667314832051</v>
+      </c>
+      <c r="W106">
+        <v>1310.777351242232</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>5.9893802409731052</v>
+      </c>
+      <c r="Y106">
+        <v>21.951446230854565</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1312.7</v>
+      </c>
+      <c r="D107">
+        <v>1353.6</v>
+      </c>
+      <c r="E107">
+        <v>1296.0999999999999</v>
+      </c>
+      <c r="F107">
+        <v>1350</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1333.2333333333333</v>
+      </c>
+      <c r="H107">
+        <v>1313.6371258224581</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1342.2159423452899</v>
+      </c>
+      <c r="K107">
+        <v>1287.863835604883</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>63.516705920711317</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>53.900000000000091</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>57.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.93739130434782769</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V107">
+        <v>1321.8795420242504</v>
+      </c>
+      <c r="W107">
+        <v>1313.6827326316964</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>8.196809392554087</v>
+      </c>
+      <c r="Y107">
+        <v>19.200518863194468</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
